--- a/Doc/画图笔记.xlsx
+++ b/Doc/画图笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -53,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +77,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -306,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,6 +383,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1602,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="W4" sqref="W4:AB9"/>
     </sheetView>
   </sheetViews>
@@ -2295,12 +2315,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="G1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="32" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:18" ht="15" customHeight="1"/>
+    <row r="3" spans="7:18">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>6</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="7:18">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="7:18">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="7:18">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="7:18">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="7:18">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="7:18">
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="7:18">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="7:18">
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="7:18">
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="7:18">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="7:18">
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/画图笔记.xlsx
+++ b/Doc/画图笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+  <si>
+    <t>Gx=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gy=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gx，Gy相关模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gx，Gy卷积模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,8 +72,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -317,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +428,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1620,16 +1665,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:T44"/>
+  <dimension ref="B1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AB9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1"/>
     <col min="11" max="12" width="5.625" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
     <col min="14" max="29" width="5.625" customWidth="1"/>
@@ -2107,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:20" ht="30" customHeight="1">
+    <row r="17" spans="2:20" ht="30" customHeight="1">
       <c r="C17" s="13">
         <v>0</v>
       </c>
@@ -2151,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:20" ht="30" customHeight="1">
+    <row r="18" spans="2:20" ht="30" customHeight="1">
       <c r="C18" s="13">
         <v>0</v>
       </c>
@@ -2195,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:20" ht="30" customHeight="1">
+    <row r="19" spans="2:20" ht="30" customHeight="1">
       <c r="C19" s="13">
         <v>0</v>
       </c>
@@ -2239,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:20" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1">
       <c r="C20" s="17">
         <v>0</v>
       </c>
@@ -2283,18 +2328,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:20" ht="30" customHeight="1" thickTop="1"/>
-    <row r="22" spans="3:20" ht="30" customHeight="1"/>
-    <row r="23" spans="3:20" ht="30" customHeight="1"/>
-    <row r="24" spans="3:20" ht="30" customHeight="1"/>
-    <row r="25" spans="3:20" ht="30" customHeight="1"/>
-    <row r="26" spans="3:20" ht="30" customHeight="1"/>
-    <row r="27" spans="3:20" ht="30" customHeight="1"/>
-    <row r="28" spans="3:20" ht="30" customHeight="1"/>
-    <row r="29" spans="3:20" ht="30" customHeight="1"/>
-    <row r="30" spans="3:20" ht="30" customHeight="1"/>
-    <row r="31" spans="3:20" ht="30" customHeight="1"/>
-    <row r="32" spans="3:20" ht="30" customHeight="1"/>
+    <row r="21" spans="2:20" ht="30" customHeight="1" thickTop="1"/>
+    <row r="22" spans="2:20" ht="30" customHeight="1"/>
+    <row r="23" spans="2:20" ht="30" customHeight="1">
+      <c r="C23" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:20" ht="30" customHeight="1">
+      <c r="C24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="2:20" ht="30" customHeight="1">
+      <c r="B25" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="27">
+        <v>-2</v>
+      </c>
+      <c r="J25" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="30" customHeight="1">
+      <c r="C26" s="27">
+        <v>-2</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>2</v>
+      </c>
+      <c r="H26" s="27">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>0</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="30" customHeight="1">
+      <c r="C27" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="30" customHeight="1">
+      <c r="C28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="O28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+    </row>
+    <row r="29" spans="2:20" ht="30" customHeight="1">
+      <c r="B29" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="27">
+        <v>1</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="27">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27">
+        <v>2</v>
+      </c>
+      <c r="J29" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="30" customHeight="1">
+      <c r="C30" s="27">
+        <v>2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>-2</v>
+      </c>
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
+      <c r="I30" s="27">
+        <v>0</v>
+      </c>
+      <c r="J30" s="27">
+        <v>0</v>
+      </c>
+      <c r="L30" s="27">
+        <v>1</v>
+      </c>
+      <c r="M30" s="27">
+        <v>2</v>
+      </c>
+      <c r="N30" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="30" customHeight="1">
+      <c r="C31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="27">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="27">
+        <v>-2</v>
+      </c>
+      <c r="J31" s="27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="30" customHeight="1"/>
     <row r="33" ht="30" customHeight="1"/>
     <row r="34" ht="30" customHeight="1"/>
     <row r="35" ht="30" customHeight="1"/>
@@ -2308,8 +2524,15 @@
     <row r="43" ht="30" customHeight="1"/>
     <row r="44" ht="30" customHeight="1"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="C28:J28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,7 +2540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
